--- a/Dados/amostra_Y_normalizado.xlsx
+++ b/Dados/amostra_Y_normalizado.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,13 +34,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -92,10 +86,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -412,32 +406,32 @@
     <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2">
         <v>0.000018527181691</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2">
         <v>0.000004631795423</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>0</v>
       </c>
